--- a/Technology/Software/Autodesk.xlsx
+++ b/Technology/Software/Autodesk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9EC16-7DD6-2547-B5BA-6A0C7C969140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9F1FE-52B0-4A4B-904E-F14303E66232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,17 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2532,11 +2532,11 @@
     <v>Powered by Refinitiv</v>
     <v>235.005</v>
     <v>163.19999999999999</v>
-    <v>1.5346</v>
-    <v>-0.55000000000000004</v>
-    <v>-2.8260000000000004E-3</v>
-    <v>0.67</v>
-    <v>3.4520000000000002E-3</v>
+    <v>1.5304</v>
+    <v>-3.95</v>
+    <v>-1.9282999999999998E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Autodesk, Inc. is engaged in three-dimensional (3D) design, engineering and entertainment technology solutions, spanning architecture, engineering, construction, product design, manufacturing, media and entertainment. Its product offerings are focused on four primary product families: Architecture, Engineering and Construction, AutoCAD and AutoCAD LT, Manufacturing, and Media and Entertainment. Its products include AutoCAD Civil 3D; Building Connected; Architecture, Engineering and Construction Collection; Autodesk Build; Revit; AutoCAD; AutoCAD LT; Computer-Aided Manufacturing (CAM) Solutions; Fusion 360; Product Design and Manufacturing Collection; Inventor; Vault; Media and Entertainment Collection; Maya; ShotGrid, and 3ds Max. Its product development and manufacturing software provides manufacturers in automotive, transportation, industrial machinery, consumer products, and building product industries with digital design, engineering, manufacturing, and production solutions.</v>
     <v>13700</v>
@@ -2544,25 +2544,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Market, Ste. 400., SAN FRANCISCO, CA, 94105 US</v>
-    <v>195.16</v>
+    <v>204.25</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.966648865622</v>
+    <v>45065.92064673594</v>
     <v>0</v>
-    <v>192.27</v>
-    <v>41687180000</v>
+    <v>199.2501</v>
+    <v>43021095725</v>
     <v>AUTODESK, INC.</v>
     <v>AUTODESK, INC.</v>
-    <v>194.41</v>
-    <v>51.541699999999999</v>
-    <v>194.64</v>
-    <v>194.09</v>
-    <v>194.76</v>
-    <v>214782700</v>
+    <v>204</v>
+    <v>54.242699999999999</v>
+    <v>204.84</v>
+    <v>200.89</v>
+    <v>200.89</v>
+    <v>214152500</v>
     <v>ADSK</v>
     <v>AUTODESK, INC. (XNAS:ADSK)</v>
-    <v>891677</v>
-    <v>1436396</v>
+    <v>1522181</v>
+    <v>1118121</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3150,10 +3150,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
+      <selection pane="bottomRight" activeCell="AQ98" sqref="AQ98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5368,15 +5368,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.3291068931068928</v>
+        <v>8.5956235214785206</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>50.652709599027943</v>
+        <v>52.273506348724183</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>20.52544559330379</v>
+        <v>21.182223399803053</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13501,10 +13501,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="57" t="s">
+      <c r="AT83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="58"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13624,10 +13624,10 @@
       <c r="AM84" s="1">
         <v>-5000000</v>
       </c>
-      <c r="AT84" s="59" t="s">
+      <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="60"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14793,10 +14793,10 @@
       <c r="AM93" s="1">
         <v>-100000000</v>
       </c>
-      <c r="AT93" s="59" t="s">
+      <c r="AT93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="60"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15041,12 +15041,12 @@
       <c r="AM95" s="1">
         <v>-350000000</v>
       </c>
-      <c r="AT95" s="64" t="s">
+      <c r="AT95" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="65" cm="1">
+      <c r="AU95" s="59" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5346</v>
+        <v>1.5304</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10701453000000001</v>
+        <v>0.10683372000000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15418,10 +15418,10 @@
       <c r="AM98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT98" s="59" t="s">
+      <c r="AT98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="60"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>6.0108429654874805E-2</v>
+        <v>5.8353457528734172E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15793,12 +15793,12 @@
       <c r="AM101" s="1">
         <v>-22000000</v>
       </c>
-      <c r="AT101" s="64" t="s">
+      <c r="AT101" s="58" t="s">
         <v>142</v>
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>41687180000</v>
+        <v>43021095725</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.93989157034512516</v>
+        <v>0.94164654247126578</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>44353180000</v>
+        <v>45687095725</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16171,10 +16171,10 @@
       <c r="AM104" s="11">
         <v>1947000000</v>
       </c>
-      <c r="AT104" s="59" t="s">
+      <c r="AT104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="60"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10142549115158127</v>
+        <v>0.10141841393414459</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16538,7 +16538,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>45609933874.398956</v>
+        <v>45614157874.907257</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>49010676896.586357</v>
+        <v>49014900897.094658</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16579,14 +16579,14 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>0.10142549115158127</v>
+        <v>0.10141841393414459</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AN109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="62"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="49" t="s">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>38492416482.552109</v>
+        <v>38496126887.560951</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>37898416482.552109</v>
+        <v>37902126887.560951</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16639,16 +16639,16 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>174.99278653707378</v>
+        <v>175.00991902365084</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AO116" s="63" cm="1">
+      <c r="AO116" s="57" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>194.09</v>
+        <v>200.89</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-9.8393598139657978E-2</v>
+        <v>-0.12882712417914854</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Autodesk.xlsx
+++ b/Technology/Software/Autodesk.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A9F1FE-52B0-4A4B-904E-F14303E66232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6313D0-1B8E-1C41-A09D-C610F1BAE5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -551,6 +552,9 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
 </sst>
 </file>
 
@@ -898,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1034,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2532,11 +2539,11 @@
     <v>Powered by Refinitiv</v>
     <v>235.005</v>
     <v>163.19999999999999</v>
-    <v>1.5304</v>
-    <v>-3.95</v>
-    <v>-1.9282999999999998E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.5291999999999999</v>
+    <v>1.34</v>
+    <v>6.783E-3</v>
+    <v>0.16</v>
+    <v>8.0439999999999993E-4</v>
     <v>USD</v>
     <v>Autodesk, Inc. is engaged in three-dimensional (3D) design, engineering and entertainment technology solutions, spanning architecture, engineering, construction, product design, manufacturing, media and entertainment. Its product offerings are focused on four primary product families: Architecture, Engineering and Construction, AutoCAD and AutoCAD LT, Manufacturing, and Media and Entertainment. Its products include AutoCAD Civil 3D; Building Connected; Architecture, Engineering and Construction Collection; Autodesk Build; Revit; AutoCAD; AutoCAD LT; Computer-Aided Manufacturing (CAM) Solutions; Fusion 360; Product Design and Manufacturing Collection; Inventor; Vault; Media and Entertainment Collection; Maya; ShotGrid, and 3ds Max. Its product development and manufacturing software provides manufacturers in automotive, transportation, industrial machinery, consumer products, and building product industries with digital design, engineering, manufacturing, and production solutions.</v>
     <v>13700</v>
@@ -2544,25 +2551,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Market, Ste. 400., SAN FRANCISCO, CA, 94105 US</v>
-    <v>204.25</v>
+    <v>202.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.92064673594</v>
+    <v>45072.992703332813</v>
     <v>0</v>
-    <v>199.2501</v>
-    <v>43021095725</v>
+    <v>193.19</v>
+    <v>42594932250</v>
     <v>AUTODESK, INC.</v>
     <v>AUTODESK, INC.</v>
-    <v>204</v>
-    <v>54.242699999999999</v>
-    <v>204.84</v>
-    <v>200.89</v>
-    <v>200.89</v>
+    <v>200.77</v>
+    <v>51.246899999999997</v>
+    <v>197.56</v>
+    <v>198.9</v>
+    <v>199.06</v>
     <v>214152500</v>
     <v>ADSK</v>
     <v>AUTODESK, INC. (XNAS:ADSK)</v>
-    <v>1522181</v>
-    <v>1118121</v>
+    <v>2839338</v>
+    <v>1220510</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3150,10 +3157,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ98" sqref="AQ98"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4568,7 +4575,7 @@
       </c>
       <c r="AV10" s="20">
         <f>AM89</f>
-        <v>0</v>
+        <v>7.992007992007992E-3</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5368,15 +5375,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.5956235214785206</v>
+        <v>8.5104759740259741</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>52.273506348724183</v>
+        <v>51.755689246658569</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>21.182223399803053</v>
+        <v>20.972394017725257</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -14117,13 +14124,13 @@
         <v>92</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-91000000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-56000000</v>
       </c>
       <c r="AM88" s="1">
-        <v>0</v>
+        <v>-40000000</v>
       </c>
       <c r="AT88" s="33" t="s">
         <v>131</v>
@@ -14279,15 +14286,15 @@
       </c>
       <c r="AK89" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.4008020261713805E-2</v>
       </c>
       <c r="AL89" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.2766733540032828E-2</v>
       </c>
       <c r="AM89" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.992007992007992E-3</v>
       </c>
       <c r="AT89" s="23" t="s">
         <v>106</v>
@@ -15046,7 +15053,7 @@
       </c>
       <c r="AU95" s="59" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5304</v>
+        <v>1.5291999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15297,7 +15304,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10683372000000001</v>
+        <v>0.10678206</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15672,7 +15679,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.8353457528734172E-2</v>
+        <v>5.8902896327328744E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15798,7 +15805,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43021095725</v>
+        <v>42594932250</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15924,7 +15931,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.94164654247126578</v>
+        <v>0.9410971036726713</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16050,7 +16057,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>45687095725</v>
+        <v>45260932250</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16340,7 +16347,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10141841393414459</v>
+        <v>0.10131880794665969</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16493,52 +16500,57 @@
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
+      <c r="A107" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="1">
+        <f>AM22-AM27+AM77-AM88-AM81</f>
+        <v>338000000</v>
+      </c>
       <c r="AN107" s="40"/>
       <c r="AO107" s="40"/>
       <c r="AP107" s="40"/>
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>45614157874.907257</v>
+        <v>45673690293.725929</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16569,7 +16581,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>49014900897.094658</v>
+        <v>49074433315.91333</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16579,7 +16591,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>0.10141841393414459</v>
+        <v>0.10131880794665969</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16594,7 +16606,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>38496126887.560951</v>
+        <v>38548421167.864059</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16621,7 +16633,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>37902126887.560951</v>
+        <v>37954421167.864059</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16639,7 +16651,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>175.00991902365084</v>
+        <v>175.25138351424255</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16648,7 +16660,7 @@
       </c>
       <c r="AO116" s="57" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>200.89</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16657,7 +16669,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.12882712417914854</v>
+        <v>-0.11889701601688007</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16761,4 +16773,803 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId79"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02B5C94-A0F8-124D-B304-D32C7FB7D3BF}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5005000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>480000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4525000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1219000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>532000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1745000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2277000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3536000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4016000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1139000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.2276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>989000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.1976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-43000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>946000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>123000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>823000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.16439999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>218000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1947000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>125000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2072000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>961000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>308000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <v>3341000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>245000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3625000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>407000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4032000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1014000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>704000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6097000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11">
+        <v>9438000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>102000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>85000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3203000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>577000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="10">
+        <v>4000000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2581000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1377000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1">
+        <v>303000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4293000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10">
+        <v>8293000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3325000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-1995000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-185000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10">
+        <v>1145000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="11">
+        <v>9438000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1">
+        <v>823000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-277000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1">
+        <v>657000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="1">
+        <v>718000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-247000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="10">
+        <v>2071000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-96000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-96000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-397000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="1">
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-100000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="10">
+        <v>-143000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-350000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="1">
+        <v>124000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-1101000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-160000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="10">
+        <v>-1487000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="1">
+        <v>-22000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="10">
+        <v>418600000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1528400000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="11">
+        <v>1947000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2031000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ADSK" display="ROIC.AI | ADSK" xr:uid="{CE116C23-0AE7-0B4A-B07C-E414E198085C}"/>
+    <hyperlink ref="B30" r:id="rId2" tooltip="https://sec.gov" xr:uid="{4962B7A2-EA54-A44E-BB57-F8226881EFEE}"/>
+    <hyperlink ref="B68" r:id="rId3" tooltip="https://sec.gov" xr:uid="{CA35218E-7A0C-0948-9CB8-5D01F8D10EBC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Technology/Software/Autodesk.xlsx
+++ b/Technology/Software/Autodesk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6313D0-1B8E-1C41-A09D-C610F1BAE5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E9CB4-D222-F64C-80D5-085F143F2E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,6 +1021,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2538,12 +2538,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>235.005</v>
-    <v>163.19999999999999</v>
-    <v>1.5291999999999999</v>
-    <v>1.34</v>
-    <v>6.783E-3</v>
-    <v>0.16</v>
-    <v>8.0439999999999993E-4</v>
+    <v>166.94</v>
+    <v>1.522</v>
+    <v>-1.28</v>
+    <v>-6.1539999999999997E-3</v>
     <v>USD</v>
     <v>Autodesk, Inc. is engaged in three-dimensional (3D) design, engineering and entertainment technology solutions, spanning architecture, engineering, construction, product design, manufacturing, media and entertainment. Its product offerings are focused on four primary product families: Architecture, Engineering and Construction, AutoCAD and AutoCAD LT, Manufacturing, and Media and Entertainment. Its products include AutoCAD Civil 3D; Building Connected; Architecture, Engineering and Construction Collection; Autodesk Build; Revit; AutoCAD; AutoCAD LT; Computer-Aided Manufacturing (CAM) Solutions; Fusion 360; Product Design and Manufacturing Collection; Inventor; Vault; Media and Entertainment Collection; Maya; ShotGrid, and 3ds Max. Its product development and manufacturing software provides manufacturers in automotive, transportation, industrial machinery, consumer products, and building product industries with digital design, engineering, manufacturing, and production solutions.</v>
     <v>13700</v>
@@ -2551,25 +2549,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Market, Ste. 400., SAN FRANCISCO, CA, 94105 US</v>
-    <v>202.5</v>
+    <v>207.845</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.992703332813</v>
+    <v>45099.991016654691</v>
     <v>0</v>
-    <v>193.19</v>
-    <v>42594932250</v>
+    <v>205.04</v>
+    <v>44177246880</v>
     <v>AUTODESK, INC.</v>
     <v>AUTODESK, INC.</v>
-    <v>200.77</v>
-    <v>51.246899999999997</v>
-    <v>197.56</v>
-    <v>198.9</v>
-    <v>199.06</v>
-    <v>214152500</v>
+    <v>207.05</v>
+    <v>53.617800000000003</v>
+    <v>207.98</v>
+    <v>206.7</v>
+    <v>213726400</v>
     <v>ADSK</v>
     <v>AUTODESK, INC. (XNAS:ADSK)</v>
-    <v>2839338</v>
-    <v>1220510</v>
+    <v>430</v>
+    <v>1757025</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2601,8 +2598,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2623,7 +2618,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2640,7 +2634,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2651,16 +2645,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2726,19 +2717,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2783,9 +2768,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2793,9 +2775,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3157,10 +3136,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="AN127" sqref="AN127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5375,15 +5354,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>8.5104759740259741</v>
+        <v>8.8266227532467525</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>51.755689246658569</v>
+        <v>53.678307266099637</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>20.972394017725257</v>
+        <v>21.751475568685375</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13508,10 +13487,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="62" t="s">
+      <c r="AT83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="63"/>
+      <c r="AU83" s="64"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13631,10 +13610,10 @@
       <c r="AM84" s="1">
         <v>-5000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
+      <c r="AT84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="65"/>
+      <c r="AU84" s="66"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14800,10 +14779,10 @@
       <c r="AM93" s="1">
         <v>-100000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
+      <c r="AT93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="65"/>
+      <c r="AU93" s="66"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15053,7 +15032,7 @@
       </c>
       <c r="AU95" s="59" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5291999999999999</v>
+        <v>1.522</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15304,7 +15283,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10678206</v>
+        <v>0.10647210000000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15425,10 +15404,10 @@
       <c r="AM98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT98" s="64" t="s">
+      <c r="AT98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="65"/>
+      <c r="AU98" s="66"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15679,7 +15658,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.8902896327328744E-2</v>
+        <v>5.6913219675604178E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15805,7 +15784,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42594932250</v>
+        <v>44177246880</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15931,7 +15910,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.9410971036726713</v>
+        <v>0.94308678032439586</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16057,7 +16036,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>45260932250</v>
+        <v>46843246880</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16178,10 +16157,10 @@
       <c r="AM104" s="11">
         <v>1947000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
+      <c r="AT104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="65"/>
+      <c r="AU104" s="66"/>
     </row>
     <row r="105" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16347,7 +16326,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10131880794665969</v>
+        <v>0.10121103156206195</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16500,7 +16479,7 @@
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="60" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="2"/>
@@ -16550,7 +16529,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>45673690293.725929</v>
+        <v>45738281273.66938</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16581,7 +16560,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>49074433315.91333</v>
+        <v>49139024295.856781</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16591,14 +16570,14 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>0.10131880794665969</v>
+        <v>0.10121103156206195</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
+      <c r="AN109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="61"/>
+      <c r="AO109" s="62"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="49" t="s">
@@ -16606,7 +16585,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>38548421167.864059</v>
+        <v>38605159812.373634</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16612,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>37954421167.864059</v>
+        <v>38011159812.373634</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16651,7 +16630,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>175.25138351424255</v>
+        <v>175.51336948697147</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16660,7 +16639,7 @@
       </c>
       <c r="AO116" s="57" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>198.9</v>
+        <v>206.7</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16669,7 +16648,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.11889701601688007</v>
+        <v>-0.15087871559278432</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Autodesk.xlsx
+++ b/Technology/Software/Autodesk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E9CB4-D222-F64C-80D5-085F143F2E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FDB63-D9ED-8047-AF20-255A2108871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -511,9 +514,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -555,16 +555,42 @@
   <si>
     <t>Unlevered FCF</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -733,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -839,22 +865,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -862,47 +879,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -944,102 +926,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1069,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ADSK</a:t>
+              <a:t>Autodesk</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1131,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8284779050736497E-2"/>
-          <c:y val="0.12309314586994728"/>
-          <c:w val="0.86279541734860898"/>
-          <c:h val="0.70615058882138859"/>
+          <c:x val="9.7092105263157882E-2"/>
+          <c:y val="0.1603742844539307"/>
+          <c:w val="0.83185526315789471"/>
+          <c:h val="0.63183313514336026"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1188,6 +1165,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1313,7 +1413,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB16-C44B-8907-D25055D167A9}"/>
+              <c16:uniqueId val="{00000000-DA71-0345-A2A9-600EAFF7E0A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,11 +1422,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,132 +1464,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>13400000</c:v>
+                  <c:v>6500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23900000</c:v>
+                  <c:v>11600000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37600000</c:v>
+                  <c:v>20500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58100000</c:v>
+                  <c:v>32700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84300000</c:v>
+                  <c:v>46400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105500000</c:v>
+                  <c:v>56800000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107100000</c:v>
+                  <c:v>57800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86200000</c:v>
+                  <c:v>43900000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117400000</c:v>
+                  <c:v>62200000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114100000</c:v>
+                  <c:v>56600000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>163500000</c:v>
+                  <c:v>87800000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101300000</c:v>
+                  <c:v>41600000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98900000</c:v>
+                  <c:v>15400000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209700000</c:v>
+                  <c:v>90600000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103668000</c:v>
+                  <c:v>9808000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>213617000</c:v>
+                  <c:v>93233000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>188389000</c:v>
+                  <c:v>90313000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87310000</c:v>
+                  <c:v>31904000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>173488000</c:v>
+                  <c:v>120316000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>298277000</c:v>
+                  <c:v>221508000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>426700000</c:v>
+                  <c:v>328900000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>420000000</c:v>
+                  <c:v>289700000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>531300000</c:v>
+                  <c:v>356200000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>344300000</c:v>
+                  <c:v>183600000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196200000</c:v>
+                  <c:v>58000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>377400000</c:v>
+                  <c:v>212000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>478400000</c:v>
+                  <c:v>285300000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>442700000</c:v>
+                  <c:v>247400000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>418600000</c:v>
+                  <c:v>228800000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>242100000</c:v>
+                  <c:v>81800000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>159400000</c:v>
+                  <c:v>-330500000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-354900000</c:v>
+                  <c:v>-582100000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-414400000</c:v>
+                  <c:v>-566900000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>104600000</c:v>
+                  <c:v>-80800000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>476100000</c:v>
+                  <c:v>214500000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>721600000</c:v>
+                  <c:v>1208200000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>712800000</c:v>
+                  <c:v>497000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1139000000</c:v>
+                  <c:v>823000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB16-C44B-8907-D25055D167A9}"/>
+              <c16:uniqueId val="{00000001-DA71-0345-A2A9-600EAFF7E0A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,11 +1721,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,9 +1763,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1665,7 +2011,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EB16-C44B-8907-D25055D167A9}"/>
+              <c16:uniqueId val="{00000002-DA71-0345-A2A9-600EAFF7E0A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1679,11 +2025,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="114451632"/>
-        <c:axId val="114453632"/>
+        <c:axId val="949559615"/>
+        <c:axId val="949561343"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114451632"/>
+        <c:axId val="949559615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +2057,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1723,7 +2069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114453632"/>
+        <c:crossAx val="949561343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +2077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114453632"/>
+        <c:axId val="949561343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1780,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114451632"/>
+        <c:crossAx val="949559615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,16 +2140,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.36043568694666028"/>
-          <c:y val="0.91213004349851701"/>
-          <c:w val="0.30007778651236516"/>
-          <c:h val="4.8033986964283244E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2381,22 +2717,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1619249</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CC1D46-ACF7-4C81-5F4E-551FA1DDC462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3211358-A909-DCDF-E953-31976CAE3E40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,6 +2751,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3136,10 +3526,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN127" sqref="AN127"/>
+      <selection pane="bottomRight" activeCell="AR82" sqref="AR82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,19 +3657,19 @@
       <c r="AM1" s="8">
         <v>2023</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2027</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2028</v>
       </c>
     </row>
@@ -3531,19 +3921,19 @@
       <c r="AM3" s="1">
         <v>5005000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>5419000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>6036000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>6688000000</v>
-      </c>
-      <c r="AQ3" s="28">
+      <c r="AN3" s="24">
+        <v>5407000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>6030000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>6719000000</v>
+      </c>
+      <c r="AQ3" s="24">
         <v>7529000000</v>
       </c>
-      <c r="AR3" s="28">
+      <c r="AR3" s="24">
         <v>8377000000</v>
       </c>
       <c r="AS3" s="18" t="s">
@@ -3564,169 +3954,169 @@
         <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.77627118644067794</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>0.51335877862595414</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.47919293820933162</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.52259164535379377</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>0.33202687569988809</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.15174443043295494</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.28905109489051095</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.14835787089467734</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>0.12080867850098609</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.17509898812142533</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>-7.0198427555222764E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>0.24239983893698414</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>0.19948144547075031</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>0.1080545798432857</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.14160515592880607</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>1.1926427176917498E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>-0.12933737629170095</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>0.15358357223814911</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="65">
         <f t="shared" si="0"/>
         <v>0.29645991196278443</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="65">
         <f t="shared" si="0"/>
         <v>0.2345929174633461</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="65">
         <f t="shared" si="0"/>
         <v>0.2078518907563025</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="65">
         <f t="shared" si="0"/>
         <v>0.18050875095119046</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="65">
         <f t="shared" si="0"/>
         <v>6.5979096643491886E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="65">
         <f t="shared" si="0"/>
         <v>-0.2598047684865239</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="65">
         <f t="shared" si="0"/>
         <v>0.13893913753865905</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="65">
         <f t="shared" si="0"/>
         <v>0.13515729070601501</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="65">
         <f t="shared" si="0"/>
         <v>4.3599927784798709E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="65">
         <f t="shared" si="0"/>
         <v>-1.6564311045757285E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="65">
         <f t="shared" si="0"/>
         <v>0.10479792427107615</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="65">
         <f t="shared" si="0"/>
         <v>-3.224265583950281E-3</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="65">
         <f t="shared" si="0"/>
         <v>-0.18893015454654372</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="65">
         <f t="shared" si="0"/>
         <v>1.2604628261939865E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="65">
         <f t="shared" si="0"/>
         <v>0.24953807254692206</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="65">
         <f t="shared" si="0"/>
         <v>0.27414584792590868</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="65">
         <f t="shared" si="0"/>
         <v>0.15762147634608925</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="65">
         <f t="shared" si="0"/>
         <v>0.15723934149430141</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="65">
         <f t="shared" si="0"/>
         <v>0.14102681014043417</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>8.2717282717282625E-2</v>
+        <v>8.0319680319680398E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11385864550655111</v>
+        <v>0.11522100980210848</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10801855533465865</v>
+        <v>0.1142620232172471</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12574760765550241</v>
+        <v>0.12055365381753247</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
@@ -3745,7 +4135,7 @@
         <v>1.5666417940404853</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.15449544566391402</v>
       </c>
     </row>
@@ -4130,7 +4520,7 @@
         <v>0.16439999999999999</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.40579420579420578</v>
       </c>
     </row>
@@ -5348,24 +5738,24 @@
       <c r="AM16" s="1">
         <v>4016000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-1.310727592946342E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="54">
         <f>AU101/AM3</f>
         <v>8.8266227532467525</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AU16" s="54">
         <f>AU101/AM28</f>
         <v>53.678307266099637</v>
       </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
+      <c r="AV16" s="55">
+        <f>AU101/AM107</f>
         <v>21.751475568685375</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5874,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5605,8 +5995,17 @@
       <c r="AS18" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AT18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5724,12 +6123,39 @@
       <c r="AM19" s="10">
         <v>1139000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="58">
+        <v>2041000000</v>
+      </c>
+      <c r="AO19" s="58">
+        <v>2329000000</v>
+      </c>
+      <c r="AP19" s="58">
+        <v>2623000000</v>
+      </c>
+      <c r="AQ19" s="58">
+        <v>2946000000</v>
+      </c>
+      <c r="AR19" s="58">
+        <v>3322000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-594000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT19" s="54">
+        <f>AU101/AN3</f>
+        <v>8.1703804105788791</v>
+      </c>
+      <c r="AU19" s="54">
+        <f>AU101/AN28</f>
+        <v>28.013472974001267</v>
+      </c>
+      <c r="AV19" s="55">
+        <f>AU101/AN105</f>
+        <v>23.601905566335439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5879,11 +6305,31 @@
         <v>-1.2195121951219523E-2</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" ref="AM20" si="5">(AM19/AL19)-1</f>
+        <f t="shared" ref="AM20:AR20" si="5">(AM19/AL19)-1</f>
         <v>0.59792368125701456</v>
       </c>
-    </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.79192273924495171</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14110730034296903</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12623443537999135</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12314144109797942</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12763068567549229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6001,8 +6447,34 @@
       <c r="AM21" s="2">
         <v>0.2276</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN21" s="59">
+        <f>AN19/AN3</f>
+        <v>0.377473645274644</v>
+      </c>
+      <c r="AO21" s="59">
+        <f t="shared" ref="AO21:AR21" si="6">AO19/AO3</f>
+        <v>0.38623548922056383</v>
+      </c>
+      <c r="AP21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.39038547402887336</v>
+      </c>
+      <c r="AQ21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.39128702350909816</v>
+      </c>
+      <c r="AR21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.39656201504118421</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6120,8 +6592,16 @@
       <c r="AM22" s="10">
         <v>989000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AU22" s="56">
+        <f>(-1*AM98)/AU101</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="57">
+        <f>AM107/AU101</f>
+        <v>4.5973892522475815E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6240,7 +6720,7 @@
         <v>0.1976</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6359,7 +6839,7 @@
         <v>-43000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6478,7 +6958,7 @@
         <v>946000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6597,7 +7077,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6716,7 +7196,7 @@
         <v>123000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6834,8 +7314,23 @@
       <c r="AM28" s="11">
         <v>823000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN28" s="60">
+        <v>1577000000</v>
+      </c>
+      <c r="AO28" s="60">
+        <v>1814000000</v>
+      </c>
+      <c r="AP28" s="60">
+        <v>2062000000</v>
+      </c>
+      <c r="AQ28" s="60">
+        <v>2341000000</v>
+      </c>
+      <c r="AR28" s="60">
+        <v>2552000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6853,143 +7348,163 @@
         <v>0.59512195121951228</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AK29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AK29" si="7">(F28/E28)-1</f>
         <v>0.41896024464831805</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22413793103448265</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7605633802816989E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.24048442906574397</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.41685649202733477</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9.0032154340836001E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55123674911660769</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.5261958997722096</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.62980769230769229</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.883116883116883</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.89174392935982338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.50581158238173</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.1319382622032932E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.64673967202949734</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7711885656970914</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84105189667209679</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48482221861061459</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11918516266342349</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.22954780807732145</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.48455923638405385</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.68409586056644878</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6551724137931036</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34575471698113214</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.13284262180161233</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.5181891673403389E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.6424825174825175</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.0403422982885084</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76127080181543128</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.6112351829582492E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.85747045334274119</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6547029702970297</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6326340326340327</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="7">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="8">(AL28/AK28)-1</f>
         <v>-0.58864426419466975</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="8">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29:AR29" si="9">(AM28/AL28)-1</f>
         <v>0.65593561368209263</v>
       </c>
-    </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.91616038882138517</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.1502853519340519</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.13671444321940474</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.13530552861299716</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="9"/>
+        <v>9.0132422041862448E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7107,8 +7622,28 @@
       <c r="AM30" s="2">
         <v>0.16439999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN30" s="61">
+        <f>AN28/AN3</f>
+        <v>0.29165896060662105</v>
+      </c>
+      <c r="AO30" s="61">
+        <f t="shared" ref="AO30:AR30" si="10">AO28/AO3</f>
+        <v>0.30082918739635156</v>
+      </c>
+      <c r="AP30" s="61">
+        <f t="shared" si="10"/>
+        <v>0.3068909063848787</v>
+      </c>
+      <c r="AQ30" s="61">
+        <f t="shared" si="10"/>
+        <v>0.31093106654270153</v>
+      </c>
+      <c r="AR30" s="61">
+        <f t="shared" si="10"/>
+        <v>0.30464366718395608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7226,8 +7761,23 @@
       <c r="AM31" s="12">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN31" s="62">
+        <v>7.38</v>
+      </c>
+      <c r="AO31" s="62">
+        <v>8.49</v>
+      </c>
+      <c r="AP31" s="62">
+        <v>9.65</v>
+      </c>
+      <c r="AQ31" s="62">
+        <v>10.95</v>
+      </c>
+      <c r="AR31" s="62">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7594,147 +8144,147 @@
         <v>8.3516488718512277E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AK35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AK35" si="11">(D34-C34)/C34</f>
         <v>9.9616855000660601E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5595409214140745E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.0968391484068863E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1889055210153545E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.8331743132699318E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1796176460383931E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5330318848905881E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6077170418006431E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7440203651685394E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.1294651403110972E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0728314653322055</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.5095266746891296</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2554896749131057</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.7096374947073576E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.0614211983456952E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2266755733689601E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.6410368111522542E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.7759312420018675E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1176060928750451E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.7373737373737375E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.9342105263157892E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.9173553719008264E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.6918730986527588E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.0478242137009904E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.8428693424423571E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.8581225889412772E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-9.0634441087613302E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7538726333907058E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.4601769911504425E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.4369106421194431E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.733485193621868E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6445865692096849E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.7977528089887641E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="10">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="12">(AL34-AK34)/AK34</f>
         <v>-4.5024763619990995E-4</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="11">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="13">(AM34-AL34)/AL34</f>
         <v>-1.8018018018018018E-2</v>
       </c>
     </row>
@@ -12979,155 +13529,155 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="14">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4618661375970122E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.1346449431294188E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.9106336883914067E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7597958654095666E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8138000791591538E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5918318605206597E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.8750848608282423E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10920728705071393</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12710298551006516</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.708926764728773E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.11068014537458389</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10510764035457999</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12661863943096846</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.13126873126873126</v>
       </c>
     </row>
@@ -13487,10 +14037,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="63" t="s">
+      <c r="AT83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="64"/>
+      <c r="AU83" s="68"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13610,10 +14160,10 @@
       <c r="AM84" s="1">
         <v>-5000000</v>
       </c>
-      <c r="AT84" s="65" t="s">
+      <c r="AT84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="66"/>
+      <c r="AU84" s="69"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13733,10 +14283,10 @@
       <c r="AM85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT85" s="23" t="s">
+      <c r="AT85" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="AU85" s="24">
+      <c r="AU85" s="32">
         <f>AM17</f>
         <v>43000000</v>
       </c>
@@ -13859,10 +14409,10 @@
       <c r="AM86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT86" s="23" t="s">
+      <c r="AT86" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="AU86" s="24">
+      <c r="AU86" s="32">
         <f>AM56</f>
         <v>85000000</v>
       </c>
@@ -13985,10 +14535,10 @@
       <c r="AM87" s="10">
         <v>2071000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
+      <c r="AT87" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AU87" s="24">
+      <c r="AU87" s="32">
         <f>AM61</f>
         <v>2581000000</v>
       </c>
@@ -14069,38 +14619,38 @@
       <c r="Y88" s="1">
         <v>-78400000</v>
       </c>
-      <c r="Z88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ88" s="1" t="s">
-        <v>92</v>
+      <c r="Z88" s="1">
+        <v>-39000000</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>-28300000</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>-93500000</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>-83500000</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>-82800000</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>-79500000</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>-116900000</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>-89800000</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>-62900000</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>-63000000</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>-64800000</v>
       </c>
       <c r="AK88" s="1">
         <v>-91000000</v>
@@ -14124,161 +14674,161 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AM89" si="15">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.5027995520716692E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.8692728036990326E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.6131386861313869E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.114382785956965E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3007889546351085E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.3994720633523977E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.051291651067016E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.5031205959331589E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4307243558580455E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14306944069170494</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8205715316844309E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.4616222589616413E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.756562331462779E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.3764129729860782E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.2577342553877869E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.3097821549773983E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3458508403361345E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9186868137841071E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9936461163036972E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.3863165169315826E-2</v>
       </c>
-      <c r="Z89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ89" s="15" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+      <c r="Z89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.2757775573320885E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.4499436417665745E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.2200758259613648E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.611279301098521E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.6413210783235853E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.1645569620253167E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.6683439159777962E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="15"/>
+        <v>4.4214672575086163E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="15"/>
+        <v>3.0584459787999611E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="15"/>
+        <v>2.4515526500116739E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="15"/>
+        <v>1.9790489570289834E-2</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4008020261713805E-2</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2766733540032828E-2</v>
       </c>
       <c r="AM89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.992007992007992E-3</v>
       </c>
-      <c r="AT89" s="23" t="s">
+      <c r="AT89" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="32">
         <f>AM27</f>
         <v>123000000</v>
       </c>
@@ -14401,10 +14951,10 @@
       <c r="AM90" s="1">
         <v>-96000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="32">
         <f>AM25</f>
         <v>946000000</v>
       </c>
@@ -14653,10 +15203,10 @@
       <c r="AM92" s="1">
         <v>450000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
+      <c r="AT92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="36">
+      <c r="AU92" s="34">
         <f>AU88*(1-AU91)</f>
         <v>1.4031917070176635E-2</v>
       </c>
@@ -14779,10 +15329,10 @@
       <c r="AM93" s="1">
         <v>-100000000</v>
       </c>
-      <c r="AT93" s="65" t="s">
+      <c r="AT93" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="66"/>
+      <c r="AU93" s="69"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14902,11 +15452,12 @@
       <c r="AM94" s="10">
         <v>-143000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
+      <c r="AT94" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AU94" s="53">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15027,10 +15578,10 @@
       <c r="AM95" s="1">
         <v>-350000000</v>
       </c>
-      <c r="AT95" s="58" t="s">
+      <c r="AT95" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="59" cm="1">
+      <c r="AU95" s="37" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>1.522</v>
       </c>
@@ -15153,10 +15704,10 @@
       <c r="AM96" s="1">
         <v>124000000</v>
       </c>
-      <c r="AT96" s="23" t="s">
+      <c r="AT96" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="37">
+      <c r="AU96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15278,12 +15829,12 @@
       <c r="AM97" s="1">
         <v>-1101000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
+      <c r="AT97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="36">
+      <c r="AU97" s="34">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10647210000000001</v>
+        <v>0.10742736000000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15401,13 +15952,13 @@
       <c r="AL98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT98" s="65" t="s">
+      <c r="AM98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT98" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="66"/>
+      <c r="AU98" s="69"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15527,10 +16078,10 @@
       <c r="AM99" s="1">
         <v>-160000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
+      <c r="AT99" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AU99" s="24">
+      <c r="AU99" s="32">
         <f>AU86+AU87</f>
         <v>2666000000</v>
       </c>
@@ -15779,10 +16330,10 @@
       <c r="AM101" s="1">
         <v>-22000000</v>
       </c>
-      <c r="AT101" s="58" t="s">
+      <c r="AT101" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="50" cm="1">
+      <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>44177246880</v>
       </c>
@@ -16031,15 +16582,15 @@
       <c r="AM103" s="1">
         <v>1528400000</v>
       </c>
-      <c r="AT103" s="35" t="s">
+      <c r="AT103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="38">
+      <c r="AU103" s="39">
         <f>AU99+AU101</f>
         <v>46843246880</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16157,505 +16708,628 @@
       <c r="AM104" s="11">
         <v>1947000000</v>
       </c>
-      <c r="AT104" s="65" t="s">
+      <c r="AT104" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="66"/>
-    </row>
-    <row r="105" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="AU104" s="69"/>
+    </row>
+    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="16">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="16"/>
+        <v>51088583.509513743</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="16"/>
+        <v>51268287.52642706</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="16"/>
+        <v>75472304.43974629</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>67432769.556025371</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="16"/>
+        <v>92237103.594080329</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="16"/>
+        <v>139535729.38689217</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="16"/>
+        <v>119227272.72727272</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="16"/>
+        <v>107313636.36363636</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="16"/>
+        <v>171055813.95348835</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="16"/>
+        <v>65213107.822410166</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="16"/>
+        <v>117492819.23890063</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="16"/>
+        <v>152346665.96194503</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="16"/>
+        <v>113596304.43974629</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="16"/>
+        <v>-29309587.737843543</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="16"/>
+        <v>145950943.97463</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="16"/>
+        <v>286317544.39746296</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="16"/>
+        <v>253918181.81818181</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="16"/>
+        <v>415231606.76532769</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="16"/>
+        <v>535362579.2811839</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="16"/>
+        <v>274209830.86680758</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="16"/>
+        <v>44070613.107822418</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="16"/>
+        <v>445112262.15644819</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="16"/>
+        <v>428064482.0295983</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="16"/>
+        <v>328626532.76955605</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="16"/>
+        <v>429269978.85835093</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="16"/>
+        <v>486206448.20295984</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="16"/>
+        <v>220630972.51585624</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="16"/>
+        <v>-28441437.632135272</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="16"/>
+        <v>-261706236.78646934</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="16"/>
+        <v>96550528.541226208</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="16"/>
+        <v>1072902748.4143763</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="16"/>
+        <v>1026703699.7885835</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="16"/>
+        <v>846698942.91754758</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>1688409090.909091</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>1871766106.1661134</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="17">AN105*(1+$AU$106)</f>
+        <v>2075035235.8656504</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="17"/>
+        <v>2300378885.9620967</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="17"/>
+        <v>2550194294.3020148</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="17"/>
+        <v>2827139032.7817974</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU105" s="41">
+        <f>(AU100*AU92)+(AU102*AU97)</f>
+        <v>0.10211192463983462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="18">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="18"/>
         <v>-3.6175710594315236E-2</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="14">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="18"/>
         <v>0.68900804289544237</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
+      <c r="I106" s="15">
+        <f t="shared" si="18"/>
         <v>-8.5714285714285743E-2</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
+      <c r="J106" s="15">
+        <f t="shared" si="18"/>
         <v>0.17013888888888884</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
+      <c r="K106" s="15">
+        <f t="shared" si="18"/>
         <v>0.25222551928783377</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="14"/>
+      <c r="L106" s="15">
+        <f t="shared" si="18"/>
         <v>6.9905213270142097E-2</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="14"/>
+      <c r="M106" s="15">
+        <f t="shared" si="18"/>
         <v>7.198228128460693E-2</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="14"/>
+      <c r="N106" s="15">
+        <f t="shared" si="18"/>
         <v>0.48347107438016534</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="14"/>
+      <c r="O106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.71587743732590536</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" si="14"/>
+      <c r="P106" s="15">
+        <f t="shared" si="18"/>
         <v>1.1733578431372549</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="14"/>
+      <c r="Q106" s="15">
+        <f t="shared" si="18"/>
         <v>0.84618767832372876</v>
       </c>
-      <c r="R105" s="15">
-        <f t="shared" si="14"/>
+      <c r="R106" s="15">
+        <f t="shared" si="18"/>
         <v>8.4358029894873177E-3</v>
       </c>
-      <c r="S105" s="15">
-        <f t="shared" si="14"/>
+      <c r="S106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.69633771079666595</v>
       </c>
-      <c r="T105" s="15">
-        <f t="shared" si="14"/>
+      <c r="T106" s="15">
+        <f t="shared" si="18"/>
         <v>2.771738046318645</v>
       </c>
-      <c r="U105" s="15">
-        <f t="shared" si="14"/>
+      <c r="U106" s="15">
+        <f t="shared" si="18"/>
         <v>0.75743200004230982</v>
       </c>
-      <c r="V105" s="15">
-        <f t="shared" si="14"/>
+      <c r="V106" s="15">
+        <f t="shared" si="18"/>
         <v>0.18779284796432116</v>
       </c>
-      <c r="W105" s="15">
-        <f t="shared" si="14"/>
+      <c r="W106" s="15">
+        <f t="shared" si="18"/>
         <v>0.37142133265771471</v>
       </c>
-      <c r="X105" s="15">
-        <f t="shared" si="14"/>
+      <c r="X106" s="15">
+        <f t="shared" si="18"/>
         <v>0.22889340476630338</v>
       </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="14"/>
+      <c r="Y106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.2250450992182802</v>
       </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="14"/>
+      <c r="Z106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.59689621726479147</v>
       </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AA106" s="15">
+        <f t="shared" si="18"/>
         <v>1.4663137632338787</v>
       </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AB106" s="15">
+        <f t="shared" si="18"/>
         <v>-3.9024390243902474E-3</v>
       </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AC106" s="15">
+        <f t="shared" si="18"/>
         <v>-1.5279138099902112E-2</v>
       </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AD106" s="15">
+        <f t="shared" si="18"/>
         <v>-6.7634772229958617E-3</v>
       </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AE106" s="15">
+        <f t="shared" si="18"/>
         <v>0.26697376326857603</v>
       </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AF106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.46000632311097056</v>
       </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AG106" s="15">
+        <f t="shared" si="18"/>
         <v>-0.72570257611241218</v>
       </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AH106" s="15">
+        <f t="shared" si="18"/>
         <v>-1.5314834578441836</v>
       </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AI106" s="15">
+        <f t="shared" si="18"/>
         <v>-7.2269076305220885</v>
       </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AJ106" s="15">
+        <f t="shared" si="18"/>
         <v>3.3918090938406964</v>
       </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="14"/>
+      <c r="AK106" s="15">
+        <f t="shared" si="18"/>
         <v>-1.5125927013730833E-2</v>
       </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="15">(AL106/AK106)-1</f>
+      <c r="AL106" s="15">
+        <f t="shared" si="18"/>
         <v>9.2074852754790104E-2</v>
       </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="16">(AM106/AL106)-1</f>
+      <c r="AM106" s="15">
+        <f t="shared" si="18"/>
         <v>0.38653741125068275</v>
       </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10121103156206195</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
+      <c r="AN106" s="63">
+        <v>1893000000</v>
+      </c>
+      <c r="AO106" s="63">
+        <v>2237000000</v>
+      </c>
+      <c r="AP106" s="63">
+        <v>2496000000</v>
+      </c>
+      <c r="AQ106" s="63">
+        <v>2696000000</v>
+      </c>
+      <c r="AR106" s="63">
+        <v>3007000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU106" s="43">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>0.10859750533462091</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="1">
         <v>38700000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>37300000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>63000000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>57600000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>67400000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>84400000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>90300000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>96800000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>143600000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>40800000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>88673000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>163707000</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R107" s="1">
         <v>165088000</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S107" s="1">
         <v>50131000</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T107" s="1">
         <v>189081000</v>
       </c>
-      <c r="U106" s="1">
+      <c r="U107" s="1">
         <v>332297000</v>
       </c>
-      <c r="V106" s="1">
+      <c r="V107" s="1">
         <v>394700000</v>
       </c>
-      <c r="W106" s="1">
+      <c r="W107" s="1">
         <v>541300000</v>
       </c>
-      <c r="X106" s="1">
+      <c r="X107" s="1">
         <v>665200000</v>
       </c>
-      <c r="Y106" s="1">
+      <c r="Y107" s="1">
         <v>515500000</v>
       </c>
-      <c r="Z106" s="1">
+      <c r="Z107" s="1">
         <v>207800000</v>
       </c>
-      <c r="AA106" s="1">
+      <c r="AA107" s="1">
         <v>512500000</v>
       </c>
-      <c r="AB106" s="1">
+      <c r="AB107" s="1">
         <v>510500000</v>
       </c>
-      <c r="AC106" s="1">
+      <c r="AC107" s="1">
         <v>502700000</v>
       </c>
-      <c r="AD106" s="1">
+      <c r="AD107" s="1">
         <v>499300000</v>
       </c>
-      <c r="AE106" s="1">
+      <c r="AE107" s="1">
         <v>632600000</v>
       </c>
-      <c r="AF106" s="1">
+      <c r="AF107" s="1">
         <v>341600000</v>
       </c>
-      <c r="AG106" s="1">
+      <c r="AG107" s="1">
         <v>93700000</v>
       </c>
-      <c r="AH106" s="1">
+      <c r="AH107" s="1">
         <v>-49800000</v>
       </c>
-      <c r="AI106" s="1">
+      <c r="AI107" s="1">
         <v>310100000</v>
       </c>
-      <c r="AJ106" s="1">
+      <c r="AJ107" s="1">
         <v>1361900000</v>
       </c>
-      <c r="AK106" s="1">
+      <c r="AK107" s="1">
         <v>1341300000</v>
       </c>
-      <c r="AL106" s="1">
+      <c r="AL107" s="1">
         <v>1464800000</v>
       </c>
-      <c r="AM106" s="1">
+      <c r="AM107" s="1">
         <v>2031000000</v>
       </c>
-      <c r="AN106" s="39">
-        <f>AM106*(1+$AU$106)</f>
-        <v>2251555734.4467416</v>
-      </c>
-      <c r="AO106" s="39">
-        <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
-        <v>2496062641.7134447</v>
-      </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="17"/>
-        <v>2767121691.0330815</v>
-      </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="17"/>
-        <v>3067616302.9825206</v>
-      </c>
-      <c r="AR106" s="39">
-        <f t="shared" si="17"/>
-        <v>3400743022.1873989</v>
-      </c>
-      <c r="AS106" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="41" t="s">
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="64">
+        <f>AR106*(1+AU107)/(AU108-AU107)</f>
+        <v>39970147475.83934</v>
+      </c>
+      <c r="AS107" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="42">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.10859465014610618</v>
-      </c>
-    </row>
-    <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
-      <c r="AM107" s="1">
-        <f>AM22-AM27+AM77-AM88-AM81</f>
-        <v>338000000</v>
-      </c>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="40"/>
-      <c r="AR107" s="43">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>45738281273.66938</v>
-      </c>
-      <c r="AS107" s="44" t="s">
+      <c r="AT107" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="45" t="s">
+      <c r="AU107" s="45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN108" s="64">
+        <f t="shared" ref="AN108:AQ108" si="19">AN107+AN106</f>
+        <v>1893000000</v>
+      </c>
+      <c r="AO108" s="64">
+        <f t="shared" si="19"/>
+        <v>2237000000</v>
+      </c>
+      <c r="AP108" s="64">
+        <f t="shared" si="19"/>
+        <v>2496000000</v>
+      </c>
+      <c r="AQ108" s="64">
+        <f t="shared" si="19"/>
+        <v>2696000000</v>
+      </c>
+      <c r="AR108" s="64">
+        <f>AR107+AR106</f>
+        <v>42977147475.83934</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT108" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="46">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="43">
-        <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
-        <v>2251555734.4467416</v>
-      </c>
-      <c r="AO108" s="43">
-        <f t="shared" si="18"/>
-        <v>2496062641.7134447</v>
-      </c>
-      <c r="AP108" s="43">
-        <f t="shared" si="18"/>
-        <v>2767121691.0330815</v>
-      </c>
-      <c r="AQ108" s="43">
-        <f>AQ107+AQ106</f>
-        <v>3067616302.9825206</v>
-      </c>
-      <c r="AR108" s="43">
-        <f>AR107+AR106</f>
-        <v>49139024295.856781</v>
-      </c>
-      <c r="AS108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="47" t="s">
+      <c r="AU108" s="43">
+        <f>AU105</f>
+        <v>0.10211192463983462</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN109" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="48">
-        <f>AU105</f>
-        <v>0.10121103156206195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AO109" s="66"/>
+    </row>
+    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="62"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="49" t="s">
+      <c r="AO110" s="38">
+        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
+        <v>33681870610.592705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="50">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>38605159812.373634</v>
-      </c>
-    </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="50">
+      <c r="AO111" s="38">
         <f>AM40</f>
         <v>2072000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="49" t="s">
+      <c r="AN112" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="50">
+      <c r="AO112" s="38">
         <f>AU99</f>
         <v>2666000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="49" t="s">
+      <c r="AN113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO113" s="38">
+        <f>AO110+AO111-AO112</f>
+        <v>33087870610.592705</v>
+      </c>
+    </row>
+    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="50">
-        <f>AO110+AO111-AO112</f>
-        <v>38011159812.373634</v>
-      </c>
-    </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="51">
+      <c r="AO114" s="47">
         <f>AM34*(1+(5*AS16))</f>
         <v>216571306.92368847</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
+      <c r="AN115" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO115" s="49">
+        <f>AO113/AO114</f>
+        <v>152.78049101052716</v>
+      </c>
+    </row>
+    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="AO115" s="53">
-        <f>AO113/AO114</f>
-        <v>175.51336948697147</v>
-      </c>
-    </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="57" cm="1">
+      <c r="AO116" s="50" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
         <v>206.7</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
+      <c r="AN117" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO117" s="51">
+        <f>AO115/AO116-1</f>
+        <v>-0.26085877595294071</v>
+      </c>
+    </row>
+    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN118" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="AO117" s="55">
-        <f>AO115/AO116-1</f>
-        <v>-0.15087871559278432</v>
-      </c>
-    </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="56" t="str">
+      <c r="AO118" s="52" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16748,9 +17422,10 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:ADSK/explorer/revenue_proj" xr:uid="{59DB2409-FE5F-A742-A71A-1D03B0531B6A}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{9C403A12-05FD-5A42-83DE-74A179801E80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
 

--- a/Technology/Software/Autodesk.xlsx
+++ b/Technology/Software/Autodesk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FDB63-D9ED-8047-AF20-255A2108871E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3402DD-B53F-CB4F-8189-193246257F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28360" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2769,20 +2769,24 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.3220000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2802,6 +2806,10 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2927,11 +2935,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>235.005</v>
-    <v>166.94</v>
-    <v>1.522</v>
-    <v>-1.28</v>
-    <v>-6.1539999999999997E-3</v>
+    <v>233.68899999999999</v>
+    <v>179.61</v>
+    <v>1.4890000000000001</v>
+    <v>0.17</v>
+    <v>7.9679999999999996E-4</v>
     <v>USD</v>
     <v>Autodesk, Inc. is engaged in three-dimensional (3D) design, engineering and entertainment technology solutions, spanning architecture, engineering, construction, product design, manufacturing, media and entertainment. Its product offerings are focused on four primary product families: Architecture, Engineering and Construction, AutoCAD and AutoCAD LT, Manufacturing, and Media and Entertainment. Its products include AutoCAD Civil 3D; Building Connected; Architecture, Engineering and Construction Collection; Autodesk Build; Revit; AutoCAD; AutoCAD LT; Computer-Aided Manufacturing (CAM) Solutions; Fusion 360; Product Design and Manufacturing Collection; Inventor; Vault; Media and Entertainment Collection; Maya; ShotGrid, and 3ds Max. Its product development and manufacturing software provides manufacturers in automotive, transportation, industrial machinery, consumer products, and building product industries with digital design, engineering, manufacturing, and production solutions.</v>
     <v>13700</v>
@@ -2939,24 +2947,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Market, Ste. 400., SAN FRANCISCO, CA, 94105 US</v>
-    <v>207.845</v>
+    <v>214.21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.991016654691</v>
+    <v>45187.886179200781</v>
     <v>0</v>
-    <v>205.04</v>
-    <v>44177246880</v>
+    <v>212.19</v>
+    <v>45642803872</v>
     <v>AUTODESK, INC.</v>
     <v>AUTODESK, INC.</v>
-    <v>207.05</v>
-    <v>53.617800000000003</v>
-    <v>207.98</v>
-    <v>206.7</v>
-    <v>213726400</v>
+    <v>212.435</v>
+    <v>52.924700000000001</v>
+    <v>213.35</v>
+    <v>213.52</v>
+    <v>213763600</v>
     <v>ADSK</v>
     <v>AUTODESK, INC. (XNAS:ADSK)</v>
-    <v>430</v>
-    <v>1757025</v>
+    <v>105247</v>
+    <v>1352376</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3109,10 +3117,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3526,7 +3534,7 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AR82" sqref="AR82"/>
@@ -5744,15 +5752,15 @@
       </c>
       <c r="AT16" s="54">
         <f>AU101/AM3</f>
-        <v>8.8266227532467525</v>
+        <v>9.1194413330669324</v>
       </c>
       <c r="AU16" s="54">
         <f>AU101/AM28</f>
-        <v>53.678307266099637</v>
+        <v>55.459056952612393</v>
       </c>
       <c r="AV16" s="55">
         <f>AU101/AM107</f>
-        <v>21.751475568685375</v>
+        <v>22.473069360905956</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6144,15 +6152,15 @@
       </c>
       <c r="AT19" s="54">
         <f>AU101/AN3</f>
-        <v>8.1703804105788791</v>
+        <v>8.4414284949139997</v>
       </c>
       <c r="AU19" s="54">
         <f>AU101/AN28</f>
-        <v>28.013472974001267</v>
+        <v>28.942805245402663</v>
       </c>
       <c r="AV19" s="55">
         <f>AU101/AN105</f>
-        <v>23.601905566335439</v>
+        <v>24.38488640308211</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6598,7 +6606,7 @@
       </c>
       <c r="AV22" s="57">
         <f>AM107/AU101</f>
-        <v>4.5973892522475815E-2</v>
+        <v>4.4497704516482078E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15457,7 +15465,7 @@
       </c>
       <c r="AU94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15583,7 +15591,7 @@
       </c>
       <c r="AU95" s="37" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.522</v>
+        <v>1.4890000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15834,7 +15842,7 @@
       </c>
       <c r="AU97" s="34">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10742736000000001</v>
+        <v>0.10394142000000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16209,7 +16217,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.6913219675604178E-2</v>
+        <v>5.5186628239935073E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16335,7 +16343,7 @@
       </c>
       <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>44177246880</v>
+        <v>45642803872</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16461,7 +16469,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.94308678032439586</v>
+        <v>0.94481337176006497</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16587,7 +16595,7 @@
       </c>
       <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>46843246880</v>
+        <v>48308803872</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16897,7 +16905,7 @@
       </c>
       <c r="AU105" s="41">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10211192463983462</v>
+        <v>9.8979617686574484E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17203,7 +17211,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>39970147475.83934</v>
+        <v>41662488890.630478</v>
       </c>
       <c r="AS107" s="29" t="s">
         <v>147</v>
@@ -17234,7 +17242,7 @@
       </c>
       <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>42977147475.83934</v>
+        <v>44669488890.630478</v>
       </c>
       <c r="AS108" s="29" t="s">
         <v>144</v>
@@ -17244,7 +17252,7 @@
       </c>
       <c r="AU108" s="43">
         <f>AU105</f>
-        <v>0.10211192463983462</v>
+        <v>9.8979617686574484E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17259,7 +17267,7 @@
       </c>
       <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>33681870610.592705</v>
+        <v>35168705062.494827</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17286,7 +17294,7 @@
       </c>
       <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>33087870610.592705</v>
+        <v>34574705062.494827</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17304,7 +17312,7 @@
       </c>
       <c r="AO115" s="49">
         <f>AO113/AO114</f>
-        <v>152.78049101052716</v>
+        <v>159.64582544943335</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17313,7 +17321,7 @@
       </c>
       <c r="AO116" s="50" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>206.7</v>
+        <v>213.52</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17322,7 +17330,7 @@
       </c>
       <c r="AO117" s="51">
         <f>AO115/AO116-1</f>
-        <v>-0.26085877595294071</v>
+        <v>-0.25231441808995247</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
